--- a/Investment.xlsx
+++ b/Investment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralph\PycharmProjects\stockpricestoexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFED6B8B-CAB0-4F20-A181-BC03F84EBCC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352A26BF-2C8C-4173-949D-73BDEE300666}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B6990AAC-63D5-4A4D-BC7B-3E609BD9C994}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>AMD</t>
   </si>
   <si>
-    <t>Kurs</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>AAL</t>
   </si>
   <si>
-    <t>Nicht investiert</t>
-  </si>
-  <si>
     <t>Historie</t>
   </si>
   <si>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>TSLA</t>
+  </si>
+  <si>
+    <t>add more rows</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -450,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAD5999-C63C-4934-A106-458A34E785CE}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -468,7 +468,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -490,7 +490,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -506,10 +506,12 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -525,14 +527,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -544,24 +546,9 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -613,9 +600,6 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -643,15 +627,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -703,10 +687,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -715,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -723,10 +707,10 @@
         <v>44224</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>-28</v>
@@ -740,10 +724,10 @@
         <v>44224</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>27</v>
